--- a/test/calc_shear.xlsx
+++ b/test/calc_shear.xlsx
@@ -50,6 +50,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,7 +163,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>293.5197</v>
+        <v>316.64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -178,7 +179,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>568</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -195,7 +196,7 @@
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">IF(C5="ltr", C4-C2, IF(C5="rtl",ABS(C3-C2), "NA"))</f>
-        <v>274.4803</v>
+        <v>43.36</v>
       </c>
     </row>
   </sheetData>

--- a/test/calc_shear.xlsx
+++ b/test/calc_shear.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="216" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="472" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
     <t>direction</t>
   </si>
   <si>
-    <t>ltr</t>
+    <t>rtl</t>
   </si>
   <si>
     <t>Ve</t>
@@ -42,8 +42,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -116,13 +117,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -145,7 +150,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -171,7 +176,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>248</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,7 +184,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>360</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,7 +199,7 @@
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">IF(C5="ltr", C4-C2, IF(C5="rtl",ABS(C3-C2), "NA"))</f>
         <v>43.36</v>
       </c>
